--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zee/development/CS151_labs/Lab5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoosborne\PycharmProjects\cs151-lab5-hazel_lucas_lab05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E955D01-8517-1C4D-BE7B-1C8D914E5AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6732387B-4E91-48C7-987D-536BBE9AA5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -31,6 +31,41 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Choice Input</t>
+  </si>
+  <si>
+    <t>Amount Changed Input</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -84,9 +119,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -124,7 +159,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -230,7 +265,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -372,7 +407,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -380,14 +415,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127005B9-9F5E-0446-B242-2658EACB013E}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="25.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoosborne\PycharmProjects\cs151-lab5-hazel_lucas_lab05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hazel\PycharmProjects\cs151-lab5-hazel_lucas_lab05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6732387B-4E91-48C7-987D-536BBE9AA5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F8D14E-4385-47A6-97BC-5E056061B2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Balance</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Amount Changed Input</t>
   </si>
   <si>
-    <t>Output</t>
-  </si>
-  <si>
     <t>e</t>
   </si>
   <si>
@@ -64,13 +61,19 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>New Balance</t>
+  </si>
+  <si>
+    <t>User Output</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,16 +81,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -95,12 +138,224 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,82 +670,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127005B9-9F5E-0446-B242-2658EACB013E}">
-  <dimension ref="B2:D11"/>
+  <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="28.8984375" customWidth="1"/>
+    <col min="5" max="5" width="38.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7">
+        <v>200</v>
+      </c>
+      <c r="D6" s="7">
+        <f>IF(B6 = "d", $C$2 + C6, IF(B6 = "w", $C$2 - C6, IF(B6 = "v", $C$2, IF(B6 = "e", $C$2, "ERROR"))))</f>
+        <v>1200</v>
+      </c>
+      <c r="E6" s="8" t="str">
+        <f>IF(D6 &lt; 0, "Negative Balance. 5% Interest Rate.", IF(D6 = "ERROR", "Try Again!", IF(B6 = "v", "Your Balance is " &amp; D6 &amp; " Thanks for using ATM", "Thanks for using ATM!")))</f>
+        <v>Thanks for using ATM!</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>500</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" ref="D7:D11" si="0">IF(B7 = "d", $C$2 + C7, IF(B7 = "w", $C$2 - C7, IF(B7 = "v", $C$2, IF(B7 = "e", $C$2, "ERROR"))))</f>
+        <v>500</v>
+      </c>
+      <c r="E7" s="5" t="str">
+        <f t="shared" ref="E7:E11" si="1">IF(D7 &lt; 0, "Negative Balance. 5% Interest Rate.", IF(D7 = "ERROR", "Try Again!", IF(B7 = "v", "Your Balance is " &amp; D7 &amp; " Thanks for using ATM", "Thanks for using ATM!")))</f>
+        <v>Thanks for using ATM!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>-500</v>
+      </c>
+      <c r="E8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Negative Balance. 5% Interest Rate.</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="E9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Your Balance is 1000 Thanks for using ATM</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="E10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Thanks for using ATM!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
+      <c r="C11" s="10">
+        <f>-C15</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
+      </c>
+      <c r="E11" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>Try Again!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
